--- a/public/users (2).xlsx
+++ b/public/users (2).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -22,19 +22,31 @@
     <t>Email</t>
   </si>
   <si>
-    <t>f1bd08f9-d205-4107-94cc-af51cd13bb18</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"0":-0.15715882182121277,"1":0.2267029732465744,"2":0.02584364078938961,"3":-0.07536953687667847,"4":-0.043410345911979675,"5":-0.008612322621047497,"6":-0.05291881784796715,"7":-0.09380895644426346,"8":0.14320799708366394,"9":-0.013650210574269295,"10":0.2672528028488159,"11":0.04916026443243027,"12":-0.2092127501964569,"13":-0.04323412850499153,"14":-0.04572563245892525,"15":0.09626931697130203,"16":-0.22434993088245392,"17":-0.11355197429656982,"18":-0.11641233414411545,"19":-0.10079361498355865,"20":0.0779632031917572,"21":0.10654278099536896,"22":-0.0038935819175094366,"23":0.05610695108771324,"24":-0.1793084293603897,"25":-0.257246732711792,"26":-0.027963371947407722,"27":-0.031250230967998505,"28":0.15886232256889343,"29":-0.06309285759925842,"30":0.037181153893470764,"31":-0.013837197795510292,"32":-0.21068227291107178,"33":-0.03684403374791145,"34":0.05467924103140831,"35":0.0771937295794487,"36":-0.005737232510000467,"37":-0.08471635729074478,"38":0.24128462374210358,"39":0.009718968532979488,"40":-0.1100902408361435,"41":0.007209570612758398,"42":0.08724395185709,"43":0.3215819001197815,"44":0.14019306004047394,"45":0.024692844599485397,"46":0.03977842256426811,"47":-0.08562900871038437,"48":0.10816226154565811,"49":-0.2174893319606781,"50":0.08037207275629044,"51":0.17645904421806335,"52":0.07902044802904129,"53":0.07444722950458527,"54":0.03384582698345184,"55":-0.23319728672504425,"56":0.05772047117352486,"57":0.11073537170886993,"58":-0.2500148117542267,"59":0.024675913155078888,"60":0.06341630965471268,"61":-0.06500516831874847,"62":-0.033065881580114365,"63":-0.012261852622032166,"64":0.20927754044532776,"65":0.09659973531961441,"66":-0.1216491088271141,"67":-0.17937637865543365,"68":0.12835268676280975,"69":-0.1299801766872406,"70":-0.029147010296583176,"71":0.08824540674686432,"72":-0.06893417239189148,"73":-0.10825963318347931,"74":-0.33888500928878784,"75":0.05670669674873352,"76":0.4449901878833771,"77":0.14208300411701202,"78":-0.1619347184896469,"79":0.0710461437702179,"80":-0.06328430026769638,"81":-0.05845579877495766,"82":0.09180940687656403,"83":0.03561403602361679,"84":-0.19151721894741058,"85":0.0011043428676202893,"86":-0.14715629816055298,"87":0.07561949640512466,"88":0.19833685457706451,"89":0.09822244197130203,"90":-0.0849609524011612,"91":0.2007521688938141,"92":0.09054183214902878,"93":-0.024276893585920334,"94":0.08094179630279541,"95":0.08944811671972275,"96":-0.17329172790050507,"97":-0.06870590150356293,"98":-0.09263034909963608,"99":-0.006096732337027788,"100":0.02749459259212017,"101":-0.04690347984433174,"102":0.013715675100684166,"103":0.17806215584278107,"104":-0.16804464161396027,"105":0.17956741154193878,"106":0.028113171458244324,"107":-0.04321688041090965,"108":-0.0467207096517086,"109":0.022933680564165115,"110":-0.10421182960271835,"111":-0.060680828988552094,"112":0.10897302627563477,"113":-0.24861031770706177,"114":0.16112078726291656,"115":0.11607405543327332,"116":0.06081810221076012,"117":0.17924152314662933,"118":0.12693755328655243,"119":0.05800493434071541,"120":-0.01701672561466694,"121":0.04055428132414818,"122":-0.10366575419902802,"123":-0.1101471409201622,"124":0.015089522115886211,"125":-0.07275781780481339,"126":0.1696845144033432,"127":0.04875630512833595}</t>
-  </si>
-  <si>
-    <t>468a7d4d-e498-4f60-93a4-531560b5affc</t>
-  </si>
-  <si>
-    <t>{"0":-0.15905772149562836,"1":0.2239128202199936,"2":0.018834345042705536,"3":-0.04790731891989708,"4":-0.055086757987737656,"5":-0.0057359421625733376,"6":-0.0632663369178772,"7":-0.09224353730678558,"8":0.1256740540266037,"9":-0.019517499953508377,"10":0.2545016407966614,"11":0.06476376950740814,"12":-0.21096259355545044,"13":-0.04168903827667236,"14":-0.04593203589320183,"15":0.09559845924377441,"16":-0.2232149839401245,"17":-0.13855424523353577,"18":-0.12253493815660477,"19":-0.10638623684644699,"20":0.08277759701013565,"21":0.10821164399385452,"22":-0.02703239768743515,"23":0.04267079010605812,"24":-0.18821263313293457,"25":-0.263069748878479,"26":-0.0208793506026268,"27":-0.028945470228791237,"28":0.17570841312408447,"29":-0.10481284558773041,"30":0.03095221519470215,"31":-0.03722027689218521,"32":-0.22910624742507935,"33":-0.035252880305051804,"34":0.026385486125946045,"35":0.039878275245428085,"36":-0.024443266913294792,"37":-0.09985708445310593,"38":0.24184496700763702,"39":0.02519151382148266,"40":-0.13637667894363403,"41":0.004126114770770073,"42":0.08544480055570602,"43":0.31339794397354126,"44":0.14899590611457825,"45":0.02434447966516018,"46":0.035850707441568375,"47":-0.07006513327360153,"48":0.09465335309505463,"49":-0.2270747572183609,"50":0.06787654012441635,"51":0.19234339892864227,"52":0.07308436185121536,"53":0.0874144658446312,"54":0.015806512907147408,"55":-0.22847102582454681,"56":0.03499862924218178,"57":0.11587054282426834,"58":-0.22971874475479126,"59":0.04265528544783592,"60":0.05496007576584816,"61":-0.08472803980112076,"62":-0.035835787653923035,"63":-0.012541119940578938,"64":0.1942211091518402,"65":0.0891348198056221,"66":-0.09021490812301636,"67":-0.17731785774230957,"68":0.1373165100812912,"69":-0.13585694134235382,"70":-0.05078615993261337,"71":0.07968752086162567,"72":-0.053054530173540115,"73":-0.12361456453800201,"74":-0.3144655227661133,"75":0.05066388100385666,"76":0.43371787667274475,"77":0.1471775770187378,"78":-0.14309440553188324,"79":0.10026653856039047,"80":-0.05569165199995041,"81":-0.06540504842996597,"82":0.10164085775613785,"83":0.04014138877391815,"84":-0.1622542440891266,"85":-0.008991675451397896,"86":-0.1251884400844574,"87":0.08734076470136642,"88":0.21649815142154694,"89":0.1021280363202095,"90":-0.07298217713832855,"91":0.1870388686656952,"92":0.0732823833823204,"93":-0.02216043882071972,"94":0.08359780162572861,"95":0.07881148159503937,"96":-0.16410966217517853,"97":-0.05205059424042702,"98":-0.056994691491127014,"99":-0.01280261855572462,"100":0.038543738424777985,"101":-0.040835488587617874,"102":0.025895167142152786,"103":0.1675562858581543,"104":-0.1413053572177887,"105":0.19055017828941345,"106":0.04251358285546303,"107":-0.016160007566213608,"108":-0.020460177212953568,"109":0.027854060754179955,"110":-0.08121834695339203,"111":-0.055867601186037064,"112":0.09774865210056305,"113":-0.23772941529750824,"114":0.21015964448451996,"115":0.12682659924030304,"116":0.037927791476249695,"117":0.17230664193630219,"118":0.1234581395983696,"119":0.056933917105197906,"120":-0.01205803919583559,"121":0.03789258003234863,"122":-0.13535135984420776,"123":-0.11097946017980576,"124":0.02023671567440033,"125":-0.08361649513244629,"126":0.16420568525791168,"127":0.04494761303067207}</t>
+    <t>786d2daa-e19f-4a86-820f-4a6f1e51cf94</t>
+  </si>
+  <si>
+    <t>Dhaval</t>
+  </si>
+  <si>
+    <t>parmar@123gmail.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>{"0":-0.1445828527212143,"1":0.21377862989902496,"2":0.006636271718889475,"3":-0.09179689735174179,"4":-0.07631953805685043,"5":0.008652610704302788,"6":-0.0631292536854744,"7":-0.07732533663511276,"8":0.1565791815519333,"9":-0.032600037753582,"10":0.25955358147621155,"11":0.04050827398896217,"12":-0.21668657660484314,"13":-0.05196324363350868,"14":-0.09430703520774841,"15":0.09673237055540085,"16":-0.21418745815753937,"17":-0.14007118344306946,"18":-0.0892469733953476,"19":-0.12151726335287094,"20":0.0963364914059639,"21":0.08047357946634293,"22":-0.03023901954293251,"23":0.05088607966899872,"24":-0.19129277765750885,"25":-0.23140934109687805,"26":-0.024803219363093376,"27":-0.04421444237232208,"28":0.14215388894081116,"29":-0.10445193201303482,"30":0.04081019386649132,"31":-0.021601783111691475,"32":-0.22411000728607178,"33":-0.03482876345515251,"34":0.03096906654536724,"35":0.06550585478544235,"36":-0.0005404863622970879,"37":-0.10759895294904709,"38":0.23363180458545685,"39":0.023580623790621758,"40":-0.0851680338382721,"41":-0.012821572832763195,"42":0.10545766353607178,"43":0.32449451088905334,"44":0.1357380598783493,"45":-0.0005072049680165946,"46":0.02677443064749241,"47":-0.05856277048587799,"48":0.104035384953022,"49":-0.22530275583267212,"50":0.07870334386825562,"51":0.16815471649169922,"52":0.10256247967481613,"53":0.08674239367246628,"54":0.05129941180348396,"55":-0.21376198530197144,"56":0.050937406718730927,"57":0.1297442466020584,"58":-0.23561006784439087,"59":0.037970155477523804,"60":0.03940223529934883,"61":-0.049221642315387726,"62":-0.04766228795051575,"63":-0.029861053451895714,"64":0.2181551307439804,"65":0.10013978183269501,"66":-0.10427969694137573,"67":-0.17888501286506653,"68":0.15353728830814362,"69":-0.12399224191904068,"70":-0.054786693304777145,"71":0.07719425112009048,"72":-0.061062127351760864,"73":-0.0950419008731842,"74":-0.32148119807243347,"75":0.06364203989505768,"76":0.44591206312179565,"77":0.16381509602069855,"78":-0.13706372678279877,"79":0.08533329516649246,"80":-0.06272029131650925,"81":-0.07420635223388672,"82":0.06305316090583801,"83":0.004536517430096865,"84":-0.18047241866588593,"85":0.006036537699401379,"86":-0.12312749773263931,"87":0.09096366167068481,"88":0.20193161070346832,"89":0.09323093295097351,"90":-0.08501464873552322,"91":0.18432798981666565,"92":0.0746510699391365,"93":-0.04039961099624634,"94":0.07016642391681671,"95":0.05840642750263214,"96":-0.15331248939037323,"97":-0.044843338429927826,"98":-0.07934656739234924,"99":0.0010707589099183679,"100":0.021666614338755608,"101":-0.07604866474866867,"102":0.014521725475788116,"103":0.16328731179237366,"104":-0.1735868752002716,"105":0.12300507724285126,"106":0.03763708844780922,"107":-0.06214773654937744,"108":-0.06554162502288818,"109":0.03740191087126732,"110":-0.13092410564422607,"111":-0.04271770268678665,"112":0.11162279546260834,"113":-0.2758257985115051,"114":0.17721863090991974,"115":0.11729765683412552,"116":0.08173863589763641,"117":0.17052863538265228,"118":0.1303871124982834,"119":0.037894438952207565,"120":0.019977377727627754,"121":0.009462802670896053,"122":-0.08034594357013702,"123":-0.1224500983953476,"124":0.0032702747266739607,"125":-0.06974450498819351,"126":0.15158091485500336,"127":0.06215290725231171}</t>
+  </si>
+  <si>
+    <t>ab87bf1e-dee8-410c-8286-a62bc91e6402</t>
+  </si>
+  <si>
+    <t>{"0":-0.13103289902210236,"1":0.239083394408226,"2":0.01124628446996212,"3":-0.09164299815893173,"4":-0.0611124187707901,"5":0.03207773342728615,"6":-0.06692562252283096,"7":-0.06707657128572464,"8":0.15721896290779114,"9":-0.012947270646691322,"10":0.30638381838798523,"11":0.05100955069065094,"12":-0.20034702122211456,"13":-0.06912780553102493,"14":-0.0770019069314003,"15":0.1104137971997261,"16":-0.2130967378616333,"17":-0.12394165247678757,"18":-0.10772453248500824,"19":-0.12840130925178528,"20":0.04807998239994049,"21":0.08962270617485046,"22":-0.029724685475230217,"23":0.045957669615745544,"24":-0.17175014317035675,"25":-0.2625466287136078,"26":-0.006847965065389872,"27":-0.0394696369767189,"28":0.1692335307598114,"29":-0.1273864209651947,"30":0.011434183456003666,"31":0.010251006111502647,"32":-0.20962640643119812,"33":-0.04157678782939911,"34":0.028613688424229622,"35":0.05761421471834183,"36":-0.026734909042716026,"37":-0.09968367218971252,"38":0.2550137937068939,"39":0.021877232939004898,"40":-0.0848626047372818,"41":0.03284416347742081,"42":0.11562434583902359,"43":0.3348311185836792,"44":0.15170879662036896,"45":-0.009314973838627338,"46":0.026235567405819893,"47":-0.04441506788134575,"48":0.10835680365562439,"49":-0.21418528258800507,"50":0.08805399388074875,"51":0.17664691805839539,"52":0.10337793827056885,"53":0.08698417991399765,"54":0.0415242537856102,"55":-0.2272624373435974,"56":0.007420835085213184,"57":0.10465842485427856,"58":-0.210932195186615,"59":0.037294793874025345,"60":0.04194900393486023,"61":-0.05291314423084259,"62":-0.0724078118801117,"63":-0.045364100486040115,"64":0.19219033420085907,"65":0.11848978698253632,"66":-0.0937526673078537,"67":-0.19416850805282593,"68":0.1459638476371765,"69":-0.09679001569747925,"70":-0.038733694702386856,"71":0.08642856031656265,"72":-0.07309617847204208,"73":-0.09055757522583008,"74":-0.29002252221107483,"75":0.08499595522880554,"76":0.41114240884780884,"77":0.14961650967597961,"78":-0.14456187188625336,"79":0.07889824360609055,"80":-0.05416860058903694,"81":-0.0862908661365509,"82":0.05885796993970871,"83":-0.009537854231894016,"84":-0.17630326747894287,"85":-0.02394755370914936,"86":-0.12016527354717255,"87":0.09037920832633972,"88":0.19362318515777588,"89":0.10843092203140259,"90":-0.0882985070347786,"91":0.18146604299545288,"92":0.0671277791261673,"93":-0.019777359440922737,"94":0.0653240755200386,"95":0.07207628339529037,"96":-0.15913772583007812,"97":-0.037486299872398376,"98":-0.0985860526561737,"99":-0.004193396307528019,"100":0.03270028531551361,"101":-0.0781981348991394,"102":0.008599262684583664,"103":0.15832671523094177,"104":-0.16505968570709229,"105":0.15207327902317047,"106":0.052533168345689774,"107":-0.013232676312327385,"108":-0.02380278892815113,"109":0.06318514794111252,"110":-0.11093270778656006,"111":-0.03801286220550537,"112":0.12280533462762833,"113":-0.2548341453075409,"114":0.19881998002529144,"115":0.10233572125434875,"116":0.08465152233839035,"117":0.15797412395477295,"118":0.15727172791957855,"119":0.04116097465157509,"120":0.014730183407664299,"121":0.009059506468474865,"122":-0.10542162507772446,"123":-0.119984932243824,"124":-0.0005967465112917125,"125":-0.07106927782297134,"126":0.14459380507469177,"127":0.07205863296985626}</t>
+  </si>
+  <si>
+    <t>f4ed8e09-18e4-41b2-b61f-6930921f8e06</t>
+  </si>
+  <si>
+    <t>{"0":-0.16089199483394623,"1":0.23167574405670166,"2":0.012140159495174885,"3":-0.06744112074375153,"4":-0.061365850269794464,"5":-0.006082349456846714,"6":-0.04815942049026489,"7":-0.07471276074647903,"8":0.15211810171604156,"9":-0.008204241283237934,"10":0.2502652704715729,"11":0.06332388520240784,"12":-0.18778711557388306,"13":-0.037817150354385376,"14":-0.06767365336418152,"15":0.10838264971971512,"16":-0.2474076747894287,"17":-0.11498834192752838,"18":-0.10936562716960907,"19":-0.1270969808101654,"20":0.0645734965801239,"21":0.09958460181951523,"22":-0.013029975816607475,"23":0.03011062741279602,"24":-0.20157185196876526,"25":-0.2509661316871643,"26":-0.0414881706237793,"27":-0.04165416583418846,"28":0.1733846813440323,"29":-0.10613491386175156,"30":0.05595247074961662,"31":-0.02800619974732399,"32":-0.23293618857860565,"33":-0.029586311429739,"34":0.03689723089337349,"35":0.04570361599326134,"36":-0.033353667706251144,"37":-0.11188200116157532,"38":0.2246423363685608,"39":0.029954107478260994,"40":-0.08841174095869064,"41":0.022163717076182365,"42":0.08675697445869446,"43":0.33083444833755493,"44":0.16673973202705383,"45":0.001400580396875739,"46":0.029471494257450104,"47":-0.071294866502285,"48":0.0969533622264862,"49":-0.21159611642360687,"50":0.08997497707605362,"51":0.16702234745025635,"52":0.06097700446844101,"53":0.08980195224285126,"54":0.045868124812841415,"55":-0.21352428197860718,"56":0.038283571600914,"57":0.12266489118337631,"58":-0.2270510196685791,"59":0.03155071288347244,"60":0.05942907929420471,"61":-0.03555106744170189,"62":-0.051739126443862915,"63":-0.004379057325422764,"64":0.19014930725097656,"65":0.11415405571460724,"66":-0.1111132800579071,"67":-0.19455558061599731,"68":0.13572336733341217,"69":-0.1197083368897438,"70":-0.023761387914419174,"71":0.06908129155635834,"72":-0.058407366275787354,"73":-0.1089414656162262,"74":-0.3128785192966461,"75":0.07514557987451553,"76":0.4329071640968323,"77":0.14097340404987335,"78":-0.1402493715286255,"79":0.07411100715398788,"80":-0.0647406354546547,"81":-0.059531040489673615,"82":0.09158913046121597,"83":0.025710513815283775,"84":-0.1807338148355484,"85":-0.03526036813855171,"86":-0.12927986681461334,"87":0.09594526886940002,"88":0.18934956192970276,"89":0.0991387739777565,"90":-0.10489623993635178,"91":0.179544597864151,"92":0.057556670159101486,"93":-0.05181252956390381,"94":0.06070338189601898,"95":0.07680732756853104,"96":-0.18750274181365967,"97":-0.0407194085419178,"98":-0.06781619042158127,"99":-0.02430323138833046,"100":0.05390341952443123,"101":-0.0454568937420845,"102":-0.005760012194514275,"103":0.1896517127752304,"104":-0.1364801526069641,"105":0.17731517553329468,"106":0.04655952751636505,"107":-0.026639945805072784,"108":-0.04183831810951233,"109":0.023000147193670273,"110":-0.12140840291976929,"111":-0.0304265134036541,"112":0.09962069988250732,"113":-0.2506154179573059,"114":0.2205352932214737,"115":0.10803236067295074,"116":0.02823667973279953,"117":0.16595321893692017,"118":0.13755054771900177,"119":0.04213125258684158,"120":-0.0010887372773140669,"121":0.0424831360578537,"122":-0.10450614243745804,"123":-0.10339470207691193,"124":-0.0011585245374590158,"125":-0.06481428444385529,"126":0.15412919223308563,"127":0.04145437851548195}</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,30 +445,47 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
